--- a/Working_Hours_Aline_03.10-03.16.2025.xlsx
+++ b/Working_Hours_Aline_03.10-03.16.2025.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -925,34 +925,7 @@
           <t>0.00</t>
         </is>
       </c>
-      <c r="K12" s="4" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>Lei Zhai-Jerry</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>45732</v>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>Sunday</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="inlineStr"/>
-      <c r="E13" s="4" t="inlineStr"/>
-      <c r="F13" s="4" t="inlineStr"/>
-      <c r="G13" s="4" t="inlineStr"/>
-      <c r="H13" s="4" t="inlineStr"/>
-      <c r="I13" s="4" t="inlineStr"/>
-      <c r="J13" s="4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="K13" s="4" t="inlineStr">
+      <c r="K12" s="4" t="inlineStr">
         <is>
           <t>29.98</t>
         </is>
